--- a/outputs/7_output.xlsx
+++ b/outputs/7_output.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -879,37 +879,33 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>MLK_PMT_10102_-_V-002</t>
-        </is>
-      </c>
-      <c r="D8" s="29" t="inlineStr">
-        <is>
-          <t>.....</t>
-        </is>
-      </c>
+          <t>MLK_PMT_10101_-_V-001</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shell Plate</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>WATER / STEAM</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SA 240 M</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -919,49 +915,49 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>80 °C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>14 BAR</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>70 °C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>12 BAR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dish Head</t>
+          <t>Top Head</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>WATER / STEAM</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SA 240 M</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -971,49 +967,49 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>80 °C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>14 BAR</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>70 °C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>12 BAR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Seamless Pipe DN50</t>
+          <t>Bottom Head</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>WATER / STEAM</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SA 312 M TP</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1023,49 +1019,44 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>80 °C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>14 BAR</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>70 °C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>12 BAR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Seamless Pipe DN25</t>
+          <t>Flange</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>WATER / STEAM</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>SA 312 M TP</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>316L</t>
+          <t>SA-105</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1075,49 +1066,49 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>80 °C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>14 BAR</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>70 °C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>12 BAR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Seamless Pipe DN50 (Nozzle)</t>
+          <t>Lifting Lug</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>WATER / STEAM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SA 312 M TP</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1127,34 +1118,34 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>80 °C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>14 BAR</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>70 °C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>12 BAR</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Flange DN50</t>
+          <t>Name Plate</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>WATER / STEAM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1164,12 +1155,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SA 182 M</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F316L</t>
+          <t>304</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1179,49 +1170,44 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>80 °C</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>14 BAR</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>70 °C</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>12 BAR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Flange DN25</t>
+          <t>Bolt &amp; Nut</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>WATER / STEAM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Stainless Steel Bolting</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SA 182 M</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>F316L</t>
+          <t>SA-193 GR. B7 / SA-194 GR. 2H</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1231,49 +1217,49 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>80 °C</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>14 BAR</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>70 °C</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>12 BAR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Flange DN150</t>
+          <t>Leg Support</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>WATER / STEAM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SA 182 M</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>F316L</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1283,49 +1269,49 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>80 °C</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>14 BAR</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>70 °C</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>12 BAR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
         <is>
-          <t>Flange DN50 (Nozzle)</t>
+          <t>Pipe Clip</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>WATER / STEAM</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>SA 182 M</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>F316L</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1335,303 +1321,43 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>80 °C</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>14 BAR</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>70 °C</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Base Plate</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SA 240 M</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Lifting Lug Plate</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>SA 240 M</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Doubler Plate</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>SA 240 M</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Support Angle Bar</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>SA 240 M</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Earthing Lug</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SA 240 M</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
+          <t>12 BAR</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B8:B16"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C21"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H5:J6"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="D8:D21"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="C8:C16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D8:D16"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="B8:B21"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>

--- a/outputs/7_output.xlsx
+++ b/outputs/7_output.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>11</col>
@@ -368,21 +368,21 @@
         <cNvPicPr preferRelativeResize="0"/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7513320" y="137160"/>
           <a:ext cx="2095500" cy="523875"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -879,33 +879,37 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>MLK_PMT_10101_-_V-001</t>
-        </is>
-      </c>
-      <c r="D8" s="29" t="inlineStr"/>
+          <t>MLK_PMT_10102_-_V-002</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>Air Receiver</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>PLATE 1571x600x5mm SHELL TO BE ROLLED</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WATER / STEAM</t>
+          <t>DMS0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>SA 240 M</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>316L</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -915,49 +919,49 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>80 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14 BAR</t>
+          <t>1.1 BarG</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>70 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12 BAR</t>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Top Head</t>
+          <t>DISH HEAD 8 THK TO BE FORMED 1D 2:1 TYPE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>WATER / STEAM</t>
+          <t>DMS0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>SA 240 M</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>316L</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -967,49 +971,49 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>80 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14 BAR</t>
+          <t>1.1 BarG</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>70 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12 BAR</t>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bottom Head</t>
+          <t>SEAMLESS PIPE DN50 x 87 SCH 40S</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>WATER / STEAM</t>
+          <t>DMS0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>SA 312 M TP</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>316L</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1019,44 +1023,49 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>80 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14 BAR</t>
+          <t>1.1 BarG</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>70 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>12 BAR</t>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Flange</t>
+          <t>SEAMLESS PIPE DN25 x 100 SCH 40S</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>WATER / STEAM</t>
+          <t>DMS0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>SA-105</t>
+          <t>SA 312 M TP</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>316L</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1066,49 +1075,49 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>80 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14 BAR</t>
+          <t>1.1 BarG</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>70 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>12 BAR</t>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lifting Lug</t>
+          <t>SEAMLESS PIPE DN50 x 112 SCH 40S</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>WATER / STEAM</t>
+          <t>DMS0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>SA 312 M TP</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>316L</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1118,34 +1127,34 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>80 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14 BAR</t>
+          <t>1.1 BarG</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>70 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12 BAR</t>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Name Plate</t>
+          <t>FLANGE DN50 CLASS 150 WNRF SCH 40S</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>WATER / STEAM</t>
+          <t>DMS0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1155,12 +1164,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SA 182 M</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>F316L</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1170,44 +1179,49 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>80 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14 BAR</t>
+          <t>1.1 BarG</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>70 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>12 BAR</t>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bolt &amp; Nut</t>
+          <t>FLANGE DN25 CLASS 150 WNRF SCH 40S</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>WATER / STEAM</t>
+          <t>DMS0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Stainless Steel Bolting</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SA-193 GR. B7 / SA-194 GR. 2H</t>
+          <t>SA 182 M</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>F316L</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1217,49 +1231,49 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>80 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>14 BAR</t>
+          <t>1.1 BarG</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>70 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12 BAR</t>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leg Support</t>
+          <t>FLANGE DN50 CLASS 150 WNRF SCH 40S</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>WATER / STEAM</t>
+          <t>DMS0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>SA 182 M</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>F316L</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1269,49 +1283,49 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>80 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14 BAR</t>
+          <t>1.1 BarG</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>70 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12 BAR</t>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pipe Clip</t>
+          <t>BASE PLATE 150 x 150 x 5 THK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>WATER / STEAM</t>
+          <t>DMS0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>SA 240 M</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>Gr. 304</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1321,43 +1335,251 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>80 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>14 BAR</t>
+          <t>1.1 BarG</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>70 °C</t>
+          <t>100 °C</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12 BAR</t>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LIFTING LUG PLATE 190 x 80 x 6 THK</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>DMS0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SA 240 M</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>316L</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DOUBLER PLATE 120 x 150 x 12.7 THK</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>DMS0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SA 240 M</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Gr. 304</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>EQUAL ANGLE BAR 3" x 3" x 1/4" THK</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>DMS0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>SA 240 M</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Gr. 304</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>EARTHING LUG</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>DMS0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SA 240 M</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Gr. 304</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B8:B16"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H5:J6"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="B8:B20"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="C8:C20"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="D8:D20"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>
